--- a/src/main/resources/网站数据.xlsx
+++ b/src/main/resources/网站数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\bi\bi-backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB72E38B-8C38-4AD1-BF64-F4905A7D7D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00853E6-7330-496C-A02F-975931F02C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="1884" windowWidth="17280" windowHeight="9072" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
+    <workbookView xWindow="4716" yWindow="2196" windowWidth="17280" windowHeight="9072" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8"/>
@@ -470,6 +470,38 @@
         <v>30</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/网站数据.xlsx
+++ b/src/main/resources/网站数据.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\bi\bi-backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00853E6-7330-496C-A02F-975931F02C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01D1DBA-5F16-4C90-95A2-CBB49628CA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4716" yWindow="2196" windowWidth="17280" windowHeight="9072" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8"/>
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
